--- a/general/Genetic algorithm/Mutation.xlsx
+++ b/general/Genetic algorithm/Mutation.xlsx
@@ -1,31 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tamir\Personal\master\Master_git\Master\general\Genetic algorithm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\drive\master\Master_git\Master\general\Genetic algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815A1372-49F7-4067-942D-E56CAF5A6C93}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="82">
   <si>
     <t>Roll</t>
   </si>
@@ -250,13 +258,34 @@
   </si>
   <si>
     <t>2nd</t>
+  </si>
+  <si>
+    <t>acc length</t>
+  </si>
+  <si>
+    <t># of long_link</t>
+  </si>
+  <si>
+    <t>long_link</t>
+  </si>
+  <si>
+    <t>dof</t>
+  </si>
+  <si>
+    <t>Par Axes_Y</t>
+  </si>
+  <si>
+    <t>Pitch joints</t>
+  </si>
+  <si>
+    <t>p/r ratio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,8 +293,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,8 +345,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -569,11 +612,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -761,6 +824,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -774,13 +840,83 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -791,6 +927,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EFF1F5E-12E2-4F16-969D-4E83761CC7E8}" name="Table1" displayName="Table1" ref="B3:H8" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{67676D16-351F-4F70-BCAA-1059984D37A1}" name="# of long_link" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{18D861CD-C03F-45DC-8BF0-D465E59032A6}" name="long_link" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{853D49E3-4AB2-4912-9309-091BE1AB469A}" name="dof" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{03D1723C-FDAE-4B27-AB80-9F72E0D8EE89}" name="Par Axes_Y" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{528E3373-9698-44D7-B390-E07302F57D53}" name="Pitch joints" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{879AA0E6-D7FA-49A2-AAE8-1E5DA8859027}" name="p/r ratio" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{25449975-06CC-4668-A0AD-2F0820317DB3}" name="acc length" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1055,7 +1206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1091,19 +1242,19 @@
       <c r="J1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="64"/>
-      <c r="M1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="66"/>
       <c r="O1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="63" t="s">
+      <c r="P1" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="66"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -1681,18 +1832,18 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="62"/>
-      <c r="G19" s="62" t="s">
+      <c r="C19" s="63"/>
+      <c r="G19" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="H19" s="62"/>
-      <c r="L19" s="62" t="s">
+      <c r="H19" s="63"/>
+      <c r="L19" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="M19" s="62"/>
+      <c r="M19" s="63"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -1970,10 +2121,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:Y22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q12" sqref="Q12:Y22"/>
     </sheetView>
   </sheetViews>
@@ -2348,20 +2499,20 @@
     <row r="11" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q12" s="60"/>
-      <c r="R12" s="66" t="s">
+      <c r="R12" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="S12" s="67"/>
+      <c r="S12" s="68"/>
       <c r="T12" s="60"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="V12" s="67"/>
+      <c r="V12" s="68"/>
       <c r="W12" s="61"/>
-      <c r="X12" s="66" t="s">
+      <c r="X12" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="Y12" s="67"/>
+      <c r="Y12" s="68"/>
     </row>
     <row r="13" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q13" s="55" t="s">
@@ -2643,4 +2794,169 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D430EF1-6A5B-4C8B-8A97-6CDE29341287}">
+  <dimension ref="B3:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="69" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="62">
+        <v>2</v>
+      </c>
+      <c r="C4" s="62">
+        <v>0.7</v>
+      </c>
+      <c r="D4" s="62">
+        <v>6</v>
+      </c>
+      <c r="E4" s="62">
+        <v>0</v>
+      </c>
+      <c r="F4" s="62">
+        <v>3</v>
+      </c>
+      <c r="G4" s="62">
+        <v>0.2</v>
+      </c>
+      <c r="H4" s="62">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="62">
+        <v>1</v>
+      </c>
+      <c r="C5" s="62">
+        <v>0.7</v>
+      </c>
+      <c r="D5" s="62">
+        <v>6</v>
+      </c>
+      <c r="E5" s="62">
+        <v>0</v>
+      </c>
+      <c r="F5" s="62">
+        <v>2</v>
+      </c>
+      <c r="G5" s="62">
+        <v>0</v>
+      </c>
+      <c r="H5" s="62">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="62">
+        <v>1</v>
+      </c>
+      <c r="C6" s="62">
+        <v>0.7</v>
+      </c>
+      <c r="D6" s="62">
+        <v>6</v>
+      </c>
+      <c r="E6" s="62">
+        <v>0</v>
+      </c>
+      <c r="F6" s="62">
+        <v>4</v>
+      </c>
+      <c r="G6" s="62">
+        <v>0</v>
+      </c>
+      <c r="H6" s="62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="62">
+        <v>0</v>
+      </c>
+      <c r="C7" s="62">
+        <v>0.4</v>
+      </c>
+      <c r="D7" s="62">
+        <v>6</v>
+      </c>
+      <c r="E7" s="62">
+        <v>0</v>
+      </c>
+      <c r="F7" s="62">
+        <v>3</v>
+      </c>
+      <c r="G7" s="62">
+        <v>0</v>
+      </c>
+      <c r="H7" s="62">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="62">
+        <v>1</v>
+      </c>
+      <c r="C8" s="62">
+        <v>0.7</v>
+      </c>
+      <c r="D8" s="62">
+        <v>6</v>
+      </c>
+      <c r="E8" s="62">
+        <v>2</v>
+      </c>
+      <c r="F8" s="62">
+        <v>3</v>
+      </c>
+      <c r="G8" s="62">
+        <v>0</v>
+      </c>
+      <c r="H8" s="62">
+        <v>2.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>